--- a/files/integration_template.xlsx
+++ b/files/integration_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="sectormodel_inputs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,9 @@
     <sheet name="parameters" sheetId="3" r:id="rId3"/>
     <sheet name="intervals" sheetId="5" r:id="rId4"/>
     <sheet name="scenario" sheetId="6" r:id="rId5"/>
-    <sheet name="interventions" sheetId="4" r:id="rId6"/>
+    <sheet name="region_definitions" sheetId="7" r:id="rId6"/>
+    <sheet name="scenario_definitions" sheetId="8" r:id="rId7"/>
+    <sheet name="interventions" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -110,6 +112,9 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>filename</t>
   </si>
 </sst>
 </file>
@@ -573,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -600,10 +605,62 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/files/integration_template.xlsx
+++ b/files/integration_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="sectormodel_inputs" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="region_definitions" sheetId="7" r:id="rId6"/>
     <sheet name="scenario_definitions" sheetId="8" r:id="rId7"/>
     <sheet name="interventions" sheetId="4" r:id="rId8"/>
+    <sheet name="initial_system" sheetId="9" r:id="rId9"/>
+    <sheet name="initial_conditions" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -115,6 +117,18 @@
   </si>
   <si>
     <t>filename</t>
+  </si>
+  <si>
+    <t>intervention_name</t>
+  </si>
+  <si>
+    <t>build_year</t>
+  </si>
+  <si>
+    <t>parameter_name</t>
+  </si>
+  <si>
+    <t>initial_value</t>
   </si>
 </sst>
 </file>
@@ -462,6 +476,32 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
@@ -659,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -737,4 +777,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/files/integration_template.xlsx
+++ b/files/integration_template.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="sectormodel_inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="sectormodel_outputs" sheetId="2" r:id="rId2"/>
-    <sheet name="parameters" sheetId="3" r:id="rId3"/>
-    <sheet name="intervals" sheetId="5" r:id="rId4"/>
-    <sheet name="scenario" sheetId="6" r:id="rId5"/>
-    <sheet name="region_definitions" sheetId="7" r:id="rId6"/>
-    <sheet name="scenario_definitions" sheetId="8" r:id="rId7"/>
-    <sheet name="interventions" sheetId="4" r:id="rId8"/>
-    <sheet name="initial_system" sheetId="9" r:id="rId9"/>
-    <sheet name="initial_conditions" sheetId="10" r:id="rId10"/>
+    <sheet name="region_definitions" sheetId="7" r:id="rId1"/>
+    <sheet name="interval_definitions" sheetId="11" r:id="rId2"/>
+    <sheet name="intervals" sheetId="5" r:id="rId3"/>
+    <sheet name="sectormodel_inputs" sheetId="1" r:id="rId4"/>
+    <sheet name="sectormodel_outputs" sheetId="2" r:id="rId5"/>
+    <sheet name="parameters" sheetId="3" r:id="rId6"/>
+    <sheet name="interventions" sheetId="4" r:id="rId7"/>
+    <sheet name="initial_system" sheetId="9" r:id="rId8"/>
+    <sheet name="initial_conditions" sheetId="10" r:id="rId9"/>
+    <sheet name="scenario" sheetId="6" r:id="rId10"/>
+    <sheet name="scenario_definitions" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -443,9 +444,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -476,33 +610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -537,7 +645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -588,114 +696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1"/>
   <sheetViews>
@@ -779,7 +780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -803,4 +804,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/files/integration_template.xlsx
+++ b/files/integration_template.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="region_definitions" sheetId="7" r:id="rId1"/>
     <sheet name="interval_definitions" sheetId="11" r:id="rId2"/>
     <sheet name="intervals" sheetId="5" r:id="rId3"/>
-    <sheet name="sectormodel_inputs" sheetId="1" r:id="rId4"/>
-    <sheet name="sectormodel_outputs" sheetId="2" r:id="rId5"/>
-    <sheet name="parameters" sheetId="3" r:id="rId6"/>
-    <sheet name="interventions" sheetId="4" r:id="rId7"/>
-    <sheet name="initial_system" sheetId="9" r:id="rId8"/>
-    <sheet name="initial_conditions" sheetId="10" r:id="rId9"/>
-    <sheet name="scenario" sheetId="6" r:id="rId10"/>
-    <sheet name="scenario_definitions" sheetId="8" r:id="rId11"/>
+    <sheet name="units" sheetId="13" r:id="rId4"/>
+    <sheet name="sectormodel_inputs" sheetId="1" r:id="rId5"/>
+    <sheet name="sectormodel_outputs" sheetId="2" r:id="rId6"/>
+    <sheet name="parameters" sheetId="3" r:id="rId7"/>
+    <sheet name="interventions" sheetId="4" r:id="rId8"/>
+    <sheet name="initial_system" sheetId="9" r:id="rId9"/>
+    <sheet name="initial_conditions" sheetId="10" r:id="rId10"/>
+    <sheet name="scenario" sheetId="6" r:id="rId11"/>
+    <sheet name="scenario_definitions" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -130,14 +131,112 @@
   </si>
   <si>
     <t>initial_value</t>
+  </si>
+  <si>
+    <t>unit_name</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>lad</t>
+  </si>
+  <si>
+    <t>local authority districts in England and Wales</t>
+  </si>
+  <si>
+    <t>lad.shp</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>One annual interval of 8760 hours</t>
+  </si>
+  <si>
+    <t>annual.csv</t>
+  </si>
+  <si>
+    <t>PT0H</t>
+  </si>
+  <si>
+    <t>PT8760H</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>a count of population</t>
+  </si>
+  <si>
+    <t>electricity_demand</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>A measure of the electrical efficiency of widgets</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>widget</t>
+  </si>
+  <si>
+    <t>£M</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>reservoir_level</t>
+  </si>
+  <si>
+    <t>The level of Oxford's largest reservoir</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>population_count_high</t>
+  </si>
+  <si>
+    <t>pop_count_high.csv</t>
+  </si>
+  <si>
+    <t>ONS Population Projection High</t>
+  </si>
+  <si>
+    <t>population_density_high</t>
+  </si>
+  <si>
+    <t>pop_dens_high.csv</t>
+  </si>
+  <si>
+    <t>people/km^2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -165,8 +264,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,13 +544,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -463,6 +566,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -470,10 +584,44 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,20 +640,120 @@
         <v>25</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>52000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -518,43 +766,28 @@
         <v>26</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,6 +803,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -577,15 +821,100 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -605,58 +934,37 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
@@ -691,26 +999,80 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -775,17 +1137,46 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,30 +1192,12 @@
         <v>28</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1995</v>
       </c>
     </row>
   </sheetData>

--- a/files/integration_template.xlsx
+++ b/files/integration_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="region_definitions" sheetId="7" r:id="rId1"/>
@@ -18,14 +18,13 @@
     <sheet name="units" sheetId="13" r:id="rId4"/>
     <sheet name="sectormodel_inputs" sheetId="1" r:id="rId5"/>
     <sheet name="sectormodel_outputs" sheetId="2" r:id="rId6"/>
-    <sheet name="parameters" sheetId="3" r:id="rId7"/>
-    <sheet name="interventions" sheetId="4" r:id="rId8"/>
-    <sheet name="initial_system" sheetId="9" r:id="rId9"/>
-    <sheet name="initial_conditions" sheetId="10" r:id="rId10"/>
-    <sheet name="scenario" sheetId="6" r:id="rId11"/>
-    <sheet name="scenario_definitions" sheetId="8" r:id="rId12"/>
+    <sheet name="data" sheetId="8" r:id="rId7"/>
+    <sheet name="parameters" sheetId="3" r:id="rId8"/>
+    <sheet name="interventions" sheetId="4" r:id="rId9"/>
+    <sheet name="initial_system" sheetId="9" r:id="rId10"/>
+    <sheet name="initial_conditions" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -106,18 +105,6 @@
     <t>end_hour</t>
   </si>
   <si>
-    <t>timestep</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>interval</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -221,13 +208,88 @@
   </si>
   <si>
     <t>people/km^2</t>
+  </si>
+  <si>
+    <t>destination notes</t>
+  </si>
+  <si>
+    <t>dummy data (reference to input_data tab)</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>licenses</t>
+  </si>
+  <si>
+    <t>url (if applicable)</t>
+  </si>
+  <si>
+    <t>tools or script used to process (if applicable)</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>open data</t>
+  </si>
+  <si>
+    <t>population scenario from the Leeds team</t>
+  </si>
+  <si>
+    <t>http://www.open_pop.org/datasets/2010.html</t>
+  </si>
+  <si>
+    <t>Open population density data from the open pop organisation</t>
+  </si>
+  <si>
+    <t>github.com/nismod/myscript</t>
+  </si>
+  <si>
+    <t>source notes</t>
+  </si>
+  <si>
+    <t>Run query SELECT energy_demand FROM results;</t>
+  </si>
+  <si>
+    <t>energy_demand</t>
+  </si>
+  <si>
+    <t>dummy energy demand data</t>
+  </si>
+  <si>
+    <t>energy_demand.csv</t>
+  </si>
+  <si>
+    <t>seasonal_weeks</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>One representative week in each season</t>
+  </si>
+  <si>
+    <t>seasonal_weeks.csv</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>licenses/restrictions</t>
+  </si>
+  <si>
+    <t>Security issues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,6 +301,14 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,14 +331,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -276,6 +349,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -547,7 +623,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,18 +639,18 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -583,6 +659,40 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -597,144 +707,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>52000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -744,15 +728,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -763,18 +749,29 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -808,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +832,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -843,10 +840,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -856,21 +853,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -883,44 +889,117 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -933,19 +1012,67 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1000000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -955,10 +1082,113 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:H3"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1001,10 +1231,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1022,15 +1252,15 @@
         <v>0.33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1048,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -1139,13 +1369,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -1157,47 +1387,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1">
         <v>2017</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1995</v>
       </c>
     </row>
   </sheetData>
